--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996208.1458535288</v>
+        <v>-998908.0379747519</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>346.7642616495652</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>94.28507024178346</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>49.09265079769329</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8201236435928</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>46.47016203987984</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>293.386175221008</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.01833269594608</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>282.9248996455725</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>363.3787387492693</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>196.9366881974017</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>12.15331847048811</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>153.6859672321401</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.213275280683</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>120.8326485140796</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>41.02686156550329</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>113.7379149844563</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>221.2030256723189</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>142.3046100066265</v>
       </c>
       <c r="T22" t="n">
-        <v>177.0850116794024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>79.41314830963806</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1516.021891551489</v>
+        <v>1212.30606783594</v>
       </c>
       <c r="C2" t="n">
-        <v>1516.021891551489</v>
+        <v>1212.30606783594</v>
       </c>
       <c r="D2" t="n">
-        <v>1516.021891551489</v>
+        <v>854.0403692291893</v>
       </c>
       <c r="E2" t="n">
-        <v>1130.233638953245</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="F2" t="n">
-        <v>779.966707994088</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4328,52 +4328,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723707</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>1096.123594092265</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.194160649867</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.669266885452</v>
+        <v>1294.268838483752</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.122553105052</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394155</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2494.755321452315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2282.737450513746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2282.737450513746</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>1951.674563170176</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1598.905907900061</v>
       </c>
       <c r="X2" t="n">
-        <v>1906.161223527301</v>
+        <v>1598.905907900061</v>
       </c>
       <c r="Y2" t="n">
-        <v>1516.021891551489</v>
+        <v>1598.905907900061</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496867</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025172</v>
+        <v>794.7800573025183</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798004</v>
+        <v>1058.719588798006</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362089</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
         <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,10 +4440,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2096.166264072645</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="C4" t="n">
-        <v>1927.230081144738</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>1777.113441732402</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>1629.200348150009</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>1482.310400652099</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>1482.310400652099</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>1330.590312102684</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102684</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110049</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.334073395852</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713996</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046536</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789137</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137292</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773335</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>2472.33270548243</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>2316.958843216175</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>2316.958843216175</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>2316.958843216175</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>2316.958843216175</v>
+        <v>1056.517821155236</v>
       </c>
       <c r="W4" t="n">
-        <v>2316.958843216175</v>
+        <v>767.1006511182752</v>
       </c>
       <c r="X4" t="n">
-        <v>2316.958843216175</v>
+        <v>767.1006511182752</v>
       </c>
       <c r="Y4" t="n">
-        <v>2096.166264072645</v>
+        <v>546.3080719747451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1663.68467919212</v>
+        <v>1087.019180569858</v>
       </c>
       <c r="C5" t="n">
-        <v>1294.722162251709</v>
+        <v>718.0566636294463</v>
       </c>
       <c r="D5" t="n">
-        <v>1294.722162251709</v>
+        <v>359.7909650226958</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.782604635669</v>
+        <v>359.7909650226958</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4595,22 +4595,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.284519256242</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>2050.284519256242</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.284519256242</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y5" t="n">
-        <v>2050.284519256242</v>
+        <v>1473.61902063398</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>688.5974568552865</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>985.9094059716012</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1352.215295463927</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O6" t="n">
-        <v>1996.997356780105</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2327.030265370219</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.8064422330658</v>
+        <v>620.859647846162</v>
       </c>
       <c r="C7" t="n">
-        <v>348.8064422330658</v>
+        <v>620.859647846162</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>620.859647846162</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4753,22 +4753,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.049095695859</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>1138.26636878114</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2468305003707</v>
+        <v>1138.26636878114</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8296604634102</v>
+        <v>848.8491987441794</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8296604634102</v>
+        <v>620.859647846162</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.03708131988</v>
+        <v>620.859647846162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1054795278208</v>
+        <v>1572.808447846341</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1429625874091</v>
+        <v>1203.845930905929</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8772639806586</v>
+        <v>1203.845930905929</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8772639806586</v>
+        <v>1203.845930905929</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4823,31 +4823,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2266.889637886587</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2013.310409828834</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="V8" t="n">
-        <v>2013.310409828834</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.310409828834</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.844651567754</v>
+        <v>1962.947779822152</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.705319591942</v>
+        <v>1572.808447846341</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>491.5015312480864</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644011</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856727</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.5640303022736</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5640303022736</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>200.4473908899379</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>200.4473908899379</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1634.707590890759</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1634.707590890759</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1411.77301643274</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U10" t="n">
-        <v>1122.655239443138</v>
+        <v>1268.810744956324</v>
       </c>
       <c r="V10" t="n">
-        <v>867.9707512372515</v>
+        <v>1014.126256750437</v>
       </c>
       <c r="W10" t="n">
-        <v>578.553581200291</v>
+        <v>724.7090867134763</v>
       </c>
       <c r="X10" t="n">
-        <v>350.5640303022736</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.5640303022736</v>
+        <v>496.7195358154589</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2324.909903263008</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2105.308438285949</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622273</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343204</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219846</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3439841395915</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4540366416811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2579373565611</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892467</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="17">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2303.221053270537</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.188796316454</v>
+        <v>2083.619588293478</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.113569660651</v>
+        <v>1794.544361637675</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.429081454764</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.011911417804</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6078,7 +6078,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6172,10 +6172,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>256.118667722925</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6847,10 +6847,10 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7078,16 +7078,16 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,25 +7184,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954149</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.47518020374</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>65.9970372757237</v>
+        <v>151.6735093079758</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>248.7601900310631</v>
+        <v>248.7601900310591</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>175.408559845354</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>119.3759750973102</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>65.37844346995234</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>245.46701043772</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301.3275873423706</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60.11178409214625</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>46.03071373164055</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>218.7140456089626</v>
       </c>
     </row>
     <row r="3">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.61870490125426</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>60.19363748756503</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.26785128072061</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.4465594047878</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>65.31997266427211</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.72167599501807</v>
       </c>
       <c r="T22" t="n">
-        <v>40.32043864788585</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>60.88156453658583</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.085798245769161e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-2.629008122312371e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1216209.395220121</v>
+        <v>1216209.39522012</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>169252.1408943217</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
@@ -26323,34 +26323,34 @@
         <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77576.42687802247</v>
+        <v>77576.42687802232</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695059</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695044</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695037</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695064</v>
-      </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14278.33979478848</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14278.33979478852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14278.33979478851</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478853</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-937352.2967560893</v>
+        <v>-937712.3797718075</v>
       </c>
       <c r="C6" t="n">
-        <v>-190051.7614105801</v>
+        <v>-190051.7614105791</v>
       </c>
       <c r="D6" t="n">
-        <v>-17287.40162068675</v>
+        <v>-17287.40162068659</v>
       </c>
       <c r="E6" t="n">
-        <v>-406512.2281788512</v>
+        <v>-406546.9661042871</v>
       </c>
       <c r="F6" t="n">
-        <v>94376.63956689935</v>
+        <v>94341.90164146369</v>
       </c>
       <c r="G6" t="n">
-        <v>94376.63956689941</v>
+        <v>94341.90164146369</v>
       </c>
       <c r="H6" t="n">
-        <v>94376.63956689938</v>
+        <v>94341.90164146372</v>
       </c>
       <c r="I6" t="n">
-        <v>94376.63956689941</v>
+        <v>94341.90164146369</v>
       </c>
       <c r="J6" t="n">
-        <v>-75037.37725914871</v>
+        <v>-75072.11518458433</v>
       </c>
       <c r="K6" t="n">
-        <v>94376.63956689935</v>
+        <v>94341.90164146366</v>
       </c>
       <c r="L6" t="n">
-        <v>68390.26882373547</v>
+        <v>68390.26882373545</v>
       </c>
       <c r="M6" t="n">
-        <v>-43066.470086868</v>
+        <v>-43066.47008686804</v>
       </c>
       <c r="N6" t="n">
-        <v>87817.98681736688</v>
+        <v>87817.98681736695</v>
       </c>
       <c r="O6" t="n">
-        <v>87817.986817367</v>
+        <v>87817.98681736705</v>
       </c>
       <c r="P6" t="n">
-        <v>87817.98681736694</v>
+        <v>87817.98681736708</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498447</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>63.94530442863692</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>167.523893047091</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>130.739329384244</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>46.62740072770865</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27594,10 +27594,10 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>335.460208032382</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>113.4898705207034</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.8136474859912</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3.301699574133181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>43.49730699244213</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>9.622217748359049</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.9468301500563</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>132.5406319875655</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,19 +31844,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,13 +33023,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161564</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>343.8922083026264</v>
+        <v>429.5686803348794</v>
       </c>
       <c r="P2" t="n">
-        <v>202.327603322326</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138492</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806368</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691789</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>536.976220771803</v>
+        <v>536.9762207717996</v>
       </c>
       <c r="O3" t="n">
-        <v>241.217122981271</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689365</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>427.4052546585043</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>237.4056613270724</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>253.9254024630965</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35264,13 +35264,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>497.4637052508702</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,19 +35492,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
